--- a/files/svk/svk_cba_road_params_201912.xlsx
+++ b/files/svk/svk_cba_road_params_201912.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Tatra/UHP/Code/PYCBA/utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Tatra/UHP/Code/PYCBA/files/svk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5252AFF-0744-1F44-9696-6B0D309E42DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3A0C48-B335-E747-B69B-C9D0795111DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="10" activeTab="21" xr2:uid="{31498E98-5634-7C4D-AB13-9B8B43667B80}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="10" activeTab="12" xr2:uid="{31498E98-5634-7C4D-AB13-9B8B43667B80}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_input" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,16 @@
     <sheet name="vtts" sheetId="6" r:id="rId11"/>
     <sheet name="voc" sheetId="7" r:id="rId12"/>
     <sheet name="fuel_consumption" sheetId="21" r:id="rId13"/>
-    <sheet name="fuel_density" sheetId="22" r:id="rId14"/>
-    <sheet name="fuel_cost" sheetId="20" r:id="rId15"/>
-    <sheet name="accident_rate" sheetId="17" r:id="rId16"/>
-    <sheet name="accident_cost" sheetId="10" r:id="rId17"/>
-    <sheet name="greenhouse_rate" sheetId="11" r:id="rId18"/>
-    <sheet name="greenhouse_cost" sheetId="12" r:id="rId19"/>
-    <sheet name="emission_rate" sheetId="14" r:id="rId20"/>
-    <sheet name="emission_cost" sheetId="16" r:id="rId21"/>
-    <sheet name="noise" sheetId="13" r:id="rId22"/>
+    <sheet name="fuel_ratio" sheetId="24" r:id="rId14"/>
+    <sheet name="fuel_density" sheetId="22" r:id="rId15"/>
+    <sheet name="fuel_cost" sheetId="20" r:id="rId16"/>
+    <sheet name="accident_rate" sheetId="17" r:id="rId17"/>
+    <sheet name="accident_cost" sheetId="10" r:id="rId18"/>
+    <sheet name="greenhouse_rate" sheetId="11" r:id="rId19"/>
+    <sheet name="greenhouse_cost" sheetId="12" r:id="rId20"/>
+    <sheet name="emission_rate" sheetId="14" r:id="rId21"/>
+    <sheet name="emission_cost" sheetId="16" r:id="rId22"/>
+    <sheet name="noise" sheetId="13" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">operation_cost!$A$1:$G$17</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="121">
   <si>
     <t>econ-discount-factor</t>
   </si>
@@ -1635,15 +1636,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280AA5D7-71C8-A344-8783-C18AAC81E134}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1651,274 +1652,244 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <v>0.14249999999999999</v>
       </c>
+      <c r="E2" s="5">
+        <v>-2.3369444444444444E-3</v>
+      </c>
       <c r="F2" s="5">
-        <v>-2.3369444444444444E-3</v>
+        <v>1.614969135802469E-5</v>
       </c>
       <c r="G2" s="5">
-        <v>1.614969135802469E-5</v>
-      </c>
-      <c r="H2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <v>0.13250000000000001</v>
       </c>
+      <c r="E3" s="5">
+        <v>-2.3369444444444444E-3</v>
+      </c>
       <c r="F3" s="5">
-        <v>-2.3369444444444444E-3</v>
+        <v>1.614969135802469E-5</v>
       </c>
       <c r="G3" s="5">
-        <v>1.614969135802469E-5</v>
-      </c>
-      <c r="H3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1">
         <v>0.17249999999999999</v>
       </c>
+      <c r="E4" s="5">
+        <v>-2.3369444444444444E-3</v>
+      </c>
       <c r="F4" s="5">
-        <v>-2.3369444444444444E-3</v>
+        <v>1.614969135802469E-5</v>
       </c>
       <c r="G4" s="5">
-        <v>1.614969135802469E-5</v>
-      </c>
-      <c r="H4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>116</v>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>0.88300000000000001</v>
       </c>
+      <c r="E5" s="5">
+        <v>-2.1690000000000001E-2</v>
+      </c>
       <c r="F5" s="5">
-        <v>-2.1690000000000001E-2</v>
+        <v>2.6200000000000003E-4</v>
       </c>
       <c r="G5" s="5">
-        <v>2.6200000000000003E-4</v>
-      </c>
-      <c r="H5" s="5">
         <v>-9.8899999999999998E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>116</v>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>0.70300000000000007</v>
       </c>
+      <c r="E6" s="5">
+        <v>-2.1690000000000001E-2</v>
+      </c>
       <c r="F6" s="5">
-        <v>-2.1690000000000001E-2</v>
-      </c>
-      <c r="G6" s="5">
         <v>2.6200000000000003E-4</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <v>-9.8899999999999998E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G9" s="1"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" s="1"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="5"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E11" s="5"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1926,6 +1897,135 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB9E507-A0B4-914F-B783-62D4817008B3}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9E618E-79FA-844A-B296-31AFE0ADA973}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1973,7 +2073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86C71C9-6116-A24A-BAC2-CF87A14173B2}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2030,7 +2130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3153900D-9F76-144D-BF1F-C5AA83A92AAD}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -2539,7 +2639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459361B0-0150-2A48-A368-12C870EFCFC1}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -2660,7 +2760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB2B3B6-CA21-6D4C-8DF5-64C7D959833F}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -2992,636 +3092,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B32D573-0FEA-4B49-BC8F-2DADC906B362}">
-  <dimension ref="A1:E36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2016</v>
-      </c>
-      <c r="B2">
-        <v>2006</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="3">
-        <v>31</v>
-      </c>
-      <c r="E2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2017</v>
-      </c>
-      <c r="B3">
-        <v>2006</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="3">
-        <v>32</v>
-      </c>
-      <c r="E3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2018</v>
-      </c>
-      <c r="B4">
-        <v>2006</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="3">
-        <v>33</v>
-      </c>
-      <c r="E4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2019</v>
-      </c>
-      <c r="B5">
-        <v>2006</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="3">
-        <v>34</v>
-      </c>
-      <c r="E5">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2020</v>
-      </c>
-      <c r="B6">
-        <v>2006</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="3">
-        <v>35</v>
-      </c>
-      <c r="E6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2021</v>
-      </c>
-      <c r="B7">
-        <v>2006</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="3">
-        <v>36</v>
-      </c>
-      <c r="E7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8">
-        <v>2006</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="3">
-        <v>37</v>
-      </c>
-      <c r="E8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2023</v>
-      </c>
-      <c r="B9">
-        <v>2006</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="3">
-        <v>38</v>
-      </c>
-      <c r="E9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2024</v>
-      </c>
-      <c r="B10">
-        <v>2006</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="3">
-        <v>39</v>
-      </c>
-      <c r="E10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2025</v>
-      </c>
-      <c r="B11">
-        <v>2006</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="3">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2026</v>
-      </c>
-      <c r="B12">
-        <v>2006</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="3">
-        <v>41</v>
-      </c>
-      <c r="E12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2027</v>
-      </c>
-      <c r="B13">
-        <v>2006</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="3">
-        <v>42</v>
-      </c>
-      <c r="E13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2028</v>
-      </c>
-      <c r="B14">
-        <v>2006</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="3">
-        <v>43</v>
-      </c>
-      <c r="E14">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2029</v>
-      </c>
-      <c r="B15">
-        <v>2006</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="3">
-        <v>44</v>
-      </c>
-      <c r="E15">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2030</v>
-      </c>
-      <c r="B16">
-        <v>2006</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="3">
-        <v>45</v>
-      </c>
-      <c r="E16">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2031</v>
-      </c>
-      <c r="B17">
-        <v>2006</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="3">
-        <v>45.5</v>
-      </c>
-      <c r="E17">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2032</v>
-      </c>
-      <c r="B18">
-        <v>2006</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="3">
-        <v>46</v>
-      </c>
-      <c r="E18">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2033</v>
-      </c>
-      <c r="B19">
-        <v>2006</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="3">
-        <v>46.5</v>
-      </c>
-      <c r="E19">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2034</v>
-      </c>
-      <c r="B20">
-        <v>2006</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="3">
-        <v>47</v>
-      </c>
-      <c r="E20">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2035</v>
-      </c>
-      <c r="B21">
-        <v>2006</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="3">
-        <v>47.5</v>
-      </c>
-      <c r="E21">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2036</v>
-      </c>
-      <c r="B22">
-        <v>2006</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="3">
-        <v>48</v>
-      </c>
-      <c r="E22">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2037</v>
-      </c>
-      <c r="B23">
-        <v>2006</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3">
-        <v>48.5</v>
-      </c>
-      <c r="E23">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2038</v>
-      </c>
-      <c r="B24">
-        <v>2006</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="3">
-        <v>49</v>
-      </c>
-      <c r="E24">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2039</v>
-      </c>
-      <c r="B25">
-        <v>2006</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="3">
-        <v>49.5</v>
-      </c>
-      <c r="E25">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2040</v>
-      </c>
-      <c r="B26">
-        <v>2006</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="3">
-        <v>50</v>
-      </c>
-      <c r="E26">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2041</v>
-      </c>
-      <c r="B27">
-        <v>2006</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="3">
-        <v>50.5</v>
-      </c>
-      <c r="E27">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2042</v>
-      </c>
-      <c r="B28">
-        <v>2006</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="3">
-        <v>51</v>
-      </c>
-      <c r="E28">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2043</v>
-      </c>
-      <c r="B29">
-        <v>2006</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="3">
-        <v>51.5</v>
-      </c>
-      <c r="E29">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2044</v>
-      </c>
-      <c r="B30">
-        <v>2006</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="3">
-        <v>52</v>
-      </c>
-      <c r="E30">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2045</v>
-      </c>
-      <c r="B31">
-        <v>2006</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="3">
-        <v>52.5</v>
-      </c>
-      <c r="E31">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2046</v>
-      </c>
-      <c r="B32">
-        <v>2006</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="3">
-        <v>53</v>
-      </c>
-      <c r="E32">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2047</v>
-      </c>
-      <c r="B33">
-        <v>2006</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="3">
-        <v>53.5</v>
-      </c>
-      <c r="E33">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2048</v>
-      </c>
-      <c r="B34">
-        <v>2006</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="3">
-        <v>54</v>
-      </c>
-      <c r="E34">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2049</v>
-      </c>
-      <c r="B35">
-        <v>2006</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="3">
-        <v>54.5</v>
-      </c>
-      <c r="E35">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2050</v>
-      </c>
-      <c r="B36">
-        <v>2006</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="3">
-        <v>55</v>
-      </c>
-      <c r="E36">
-        <v>0.7</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3994,6 +3464,636 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B32D573-0FEA-4B49-BC8F-2DADC906B362}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2">
+        <v>2006</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3">
+        <v>2006</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4">
+        <v>2006</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="3">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>2006</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>2006</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7">
+        <v>2006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8">
+        <v>2006</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9">
+        <v>2006</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2024</v>
+      </c>
+      <c r="B10">
+        <v>2006</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2025</v>
+      </c>
+      <c r="B11">
+        <v>2006</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2026</v>
+      </c>
+      <c r="B12">
+        <v>2006</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2027</v>
+      </c>
+      <c r="B13">
+        <v>2006</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2028</v>
+      </c>
+      <c r="B14">
+        <v>2006</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="3">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2029</v>
+      </c>
+      <c r="B15">
+        <v>2006</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2030</v>
+      </c>
+      <c r="B16">
+        <v>2006</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2031</v>
+      </c>
+      <c r="B17">
+        <v>2006</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45.5</v>
+      </c>
+      <c r="E17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2032</v>
+      </c>
+      <c r="B18">
+        <v>2006</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2033</v>
+      </c>
+      <c r="B19">
+        <v>2006</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3">
+        <v>46.5</v>
+      </c>
+      <c r="E19">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2034</v>
+      </c>
+      <c r="B20">
+        <v>2006</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="3">
+        <v>47</v>
+      </c>
+      <c r="E20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2035</v>
+      </c>
+      <c r="B21">
+        <v>2006</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3">
+        <v>47.5</v>
+      </c>
+      <c r="E21">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2036</v>
+      </c>
+      <c r="B22">
+        <v>2006</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="3">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2037</v>
+      </c>
+      <c r="B23">
+        <v>2006</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="3">
+        <v>48.5</v>
+      </c>
+      <c r="E23">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2038</v>
+      </c>
+      <c r="B24">
+        <v>2006</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="3">
+        <v>49</v>
+      </c>
+      <c r="E24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2039</v>
+      </c>
+      <c r="B25">
+        <v>2006</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3">
+        <v>49.5</v>
+      </c>
+      <c r="E25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2040</v>
+      </c>
+      <c r="B26">
+        <v>2006</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="3">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2041</v>
+      </c>
+      <c r="B27">
+        <v>2006</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3">
+        <v>50.5</v>
+      </c>
+      <c r="E27">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2042</v>
+      </c>
+      <c r="B28">
+        <v>2006</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="3">
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2043</v>
+      </c>
+      <c r="B29">
+        <v>2006</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="3">
+        <v>51.5</v>
+      </c>
+      <c r="E29">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2044</v>
+      </c>
+      <c r="B30">
+        <v>2006</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="3">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2045</v>
+      </c>
+      <c r="B31">
+        <v>2006</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="3">
+        <v>52.5</v>
+      </c>
+      <c r="E31">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2046</v>
+      </c>
+      <c r="B32">
+        <v>2006</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="3">
+        <v>53</v>
+      </c>
+      <c r="E32">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2047</v>
+      </c>
+      <c r="B33">
+        <v>2006</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="3">
+        <v>53.5</v>
+      </c>
+      <c r="E33">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2048</v>
+      </c>
+      <c r="B34">
+        <v>2006</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="3">
+        <v>54</v>
+      </c>
+      <c r="E34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2049</v>
+      </c>
+      <c r="B35">
+        <v>2006</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="3">
+        <v>54.5</v>
+      </c>
+      <c r="E35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2050</v>
+      </c>
+      <c r="B36">
+        <v>2006</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="3">
+        <v>55</v>
+      </c>
+      <c r="E36">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B805BA22-D0B1-6548-8011-41CBF1199239}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -4364,7 +4464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD134125-B59D-A548-A10D-4D4F7C047A28}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -4562,12 +4662,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5B89D0-396A-3C48-88F8-30480302436F}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/files/svk/svk_cba_road_params_201912.xlsx
+++ b/files/svk/svk_cba_road_params_201912.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Tatra/UHP/Code/PYCBA/files/svk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3A0C48-B335-E747-B69B-C9D0795111DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF68B03-46D8-C64F-A7A9-A86355BED924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="10" activeTab="12" xr2:uid="{31498E98-5634-7C4D-AB13-9B8B43667B80}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{31498E98-5634-7C4D-AB13-9B8B43667B80}"/>
   </bookViews>
   <sheets>
-    <sheet name="sample_input" sheetId="1" r:id="rId1"/>
-    <sheet name="gdp_growth" sheetId="2" r:id="rId2"/>
-    <sheet name="cpi" sheetId="3" r:id="rId3"/>
-    <sheet name="operation_cost" sheetId="4" r:id="rId4"/>
+    <sheet name="gdp_growth" sheetId="2" r:id="rId1"/>
+    <sheet name="cpi" sheetId="3" r:id="rId2"/>
+    <sheet name="operation_cost" sheetId="4" r:id="rId3"/>
+    <sheet name="toll_operation_cost" sheetId="25" r:id="rId4"/>
     <sheet name="residual_value" sheetId="5" r:id="rId5"/>
     <sheet name="conversion_factors" sheetId="15" r:id="rId6"/>
     <sheet name="max_velocities" sheetId="23" r:id="rId7"/>
@@ -38,7 +38,7 @@
     <sheet name="noise" sheetId="13" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">operation_cost!$A$1:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">operation_cost!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -58,19 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="121">
-  <si>
-    <t>econ-discount-factor</t>
-  </si>
-  <si>
-    <t>fin-discount-factor</t>
-  </si>
-  <si>
-    <t>start-year</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="112">
   <si>
     <t>year</t>
   </si>
@@ -81,9 +69,6 @@
     <t>price_level</t>
   </si>
   <si>
-    <t>price-level</t>
-  </si>
-  <si>
     <t>vehicle</t>
   </si>
   <si>
@@ -108,12 +93,6 @@
     <t>car</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>svk</t>
-  </si>
-  <si>
     <t>purpose</t>
   </si>
   <si>
@@ -198,12 +177,6 @@
     <t>lifetime</t>
   </si>
   <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>eur</t>
-  </si>
-  <si>
     <t>labour</t>
   </si>
   <si>
@@ -354,9 +327,6 @@
     <t>eur/th</t>
   </si>
   <si>
-    <t>construction-time</t>
-  </si>
-  <si>
     <t>cpi</t>
   </si>
   <si>
@@ -421,6 +391,9 @@
   </si>
   <si>
     <t>construction</t>
+  </si>
+  <si>
+    <t>eur/veh</t>
   </si>
 </sst>
 </file>
@@ -798,80 +771,365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BCBAD-3F7A-1048-9331-57DFBC6A1A36}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA71D409-A0C8-B74E-9E0F-1F4D005A63F0}">
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>0.05</v>
+      <c r="B1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2">
+        <v>2008</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2009</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2012</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="1">
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
+      <c r="B14" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2024</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2025</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2026</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2027</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2028</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2029</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2030</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2031</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2032</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2033</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2034</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2035</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2036</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2037</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2038</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2039</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2040</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2041</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2042</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2043</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2044</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2045</v>
+      </c>
+      <c r="B39" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2046</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2047</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2048</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2049</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2050</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -891,21 +1149,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>0.04</v>
@@ -919,7 +1177,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>0.02</v>
@@ -933,7 +1191,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -947,7 +1205,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -979,48 +1237,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G2">
         <v>15.76</v>
@@ -1032,22 +1290,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>7.54</v>
@@ -1059,22 +1317,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>6.33</v>
@@ -1086,22 +1344,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>2016</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>15.76</v>
@@ -1113,22 +1371,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>2016</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>5.86</v>
@@ -1140,22 +1398,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>2016</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>4.92</v>
@@ -1167,22 +1425,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>2016</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G8">
         <v>12.65</v>
@@ -1194,22 +1452,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>2016</v>
       </c>
       <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>5.42</v>
@@ -1221,22 +1479,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>2016</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G10">
         <v>4.55</v>
@@ -1248,22 +1506,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>2016</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11">
         <v>12.65</v>
@@ -1275,22 +1533,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G12">
         <v>4.22</v>
@@ -1302,22 +1560,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>2016</v>
       </c>
       <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G13">
         <v>3.54</v>
@@ -1329,22 +1587,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>2016</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>15.76</v>
@@ -1356,22 +1614,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G15">
         <v>15.76</v>
@@ -1383,22 +1641,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>2016</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>15.76</v>
@@ -1410,22 +1668,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>2016</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G17">
         <v>15.76</v>
@@ -1437,22 +1695,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>2016</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G18">
         <v>0.4</v>
@@ -1464,22 +1722,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>2016</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G19">
         <v>0.4</v>
@@ -1491,22 +1749,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>2016</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G20">
         <v>0.4</v>
@@ -1518,22 +1776,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>2016</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G21">
         <v>0.4</v>
@@ -1560,27 +1818,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>2016</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D2" s="4">
         <v>0.14249999999999999</v>
@@ -1588,13 +1846,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2016</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4">
         <v>0.46300000000000002</v>
@@ -1602,13 +1860,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>2016</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D4" s="4">
         <v>0.3014</v>
@@ -1616,13 +1874,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2016</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4">
         <f>ROUND(0.25*0.8088+0.75*1.0179,4)</f>
@@ -1638,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280AA5D7-71C8-A344-8783-C18AAC81E134}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1646,36 +1904,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1">
         <v>0.14249999999999999</v>
@@ -1692,13 +1950,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1">
         <v>0.13250000000000001</v>
@@ -1715,13 +1973,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1">
         <v>0.17249999999999999</v>
@@ -1738,13 +1996,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D5">
         <v>0.88300000000000001</v>
@@ -1761,13 +2019,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D6">
         <v>0.70300000000000007</v>
@@ -1908,21 +2166,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>0.45</v>
@@ -1930,10 +2188,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>0.55000000000000004</v>
@@ -1941,10 +2199,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1952,10 +2210,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1963,10 +2221,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2037,21 +2295,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>0.75</v>
@@ -2059,10 +2317,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>0.85</v>
@@ -2085,27 +2343,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>2019</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D2">
         <v>1.284</v>
@@ -2113,13 +2371,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>2019</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D3">
         <v>1.2010000000000001</v>
@@ -2148,51 +2406,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F2">
         <f>1/100000000</f>
@@ -2213,16 +2471,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F15" si="0">1/100000000</f>
@@ -2243,16 +2501,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -2271,21 +2529,21 @@
         <v>24.722999999999999</v>
       </c>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -2304,24 +2562,24 @@
         <v>12.83</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -2342,19 +2600,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -2375,19 +2633,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -2406,24 +2664,24 @@
         <v>19.245999999999999</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -2444,19 +2702,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -2477,19 +2735,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -2510,19 +2768,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -2543,19 +2801,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -2576,16 +2834,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -2606,16 +2864,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -2657,27 +2915,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2">
         <v>1.02</v>
@@ -2697,7 +2955,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2">
         <v>1.5</v>
@@ -2717,7 +2975,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -2737,7 +2995,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
@@ -2772,39 +3030,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>3180</v>
@@ -2812,19 +3070,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>3140</v>
@@ -2832,19 +3090,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>3140</v>
@@ -2852,19 +3110,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>3140</v>
@@ -2872,19 +3130,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>3140</v>
@@ -2892,19 +3150,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>1.0900000000000001</v>
@@ -2912,19 +3170,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>0.23</v>
@@ -2932,19 +3190,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F9">
         <v>0.27</v>
@@ -2952,19 +3210,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <v>0.27</v>
@@ -2972,19 +3230,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <v>0.27</v>
@@ -2992,19 +3250,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>298</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <v>0.20599999999999999</v>
@@ -3012,19 +3270,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>298</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>8.6999999999999994E-2</v>
@@ -3032,19 +3290,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>298</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>5.0999999999999997E-2</v>
@@ -3052,19 +3310,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>5.0999999999999997E-2</v>
@@ -3072,19 +3330,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>298</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <v>5.0999999999999997E-2</v>
@@ -3097,37 +3355,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA71D409-A0C8-B74E-9E0F-1F4D005A63F0}">
-  <dimension ref="A1:B44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F994D8A-6343-AC4C-BDCF-5976C7875F56}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2008</v>
       </c>
-      <c r="B2" s="1">
-        <v>8.5999999999999993E-2</v>
+      <c r="B2">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2009</v>
       </c>
-      <c r="B3" s="1">
-        <v>-6.5000000000000002E-2</v>
+      <c r="B3">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3135,7 +3393,7 @@
         <v>2010</v>
       </c>
       <c r="B4" s="1">
-        <v>5.6000000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3143,7 +3401,7 @@
         <v>2011</v>
       </c>
       <c r="B5" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3151,7 +3409,7 @@
         <v>2012</v>
       </c>
       <c r="B6" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3159,7 +3417,7 @@
         <v>2013</v>
       </c>
       <c r="B7" s="1">
-        <v>0.02</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3167,7 +3425,7 @@
         <v>2014</v>
       </c>
       <c r="B8" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3175,7 +3433,7 @@
         <v>2015</v>
       </c>
       <c r="B9" s="1">
-        <v>0.04</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3183,279 +3441,23 @@
         <v>2016</v>
       </c>
       <c r="B10" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
-      <c r="B11" s="1">
-        <v>4.4999999999999998E-2</v>
+      <c r="B11">
+        <v>1.3000000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2021</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2022</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2023</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2024</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2025</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2026</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2027</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2028</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2029</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2030</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="B12">
         <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2031</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2032</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2033</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2034</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2035</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2036</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2037</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2038</v>
-      </c>
-      <c r="B32" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2039</v>
-      </c>
-      <c r="B33" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2040</v>
-      </c>
-      <c r="B34" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2041</v>
-      </c>
-      <c r="B35" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2042</v>
-      </c>
-      <c r="B36" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2043</v>
-      </c>
-      <c r="B37" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2044</v>
-      </c>
-      <c r="B38" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2045</v>
-      </c>
-      <c r="B39" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2046</v>
-      </c>
-      <c r="B40" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2047</v>
-      </c>
-      <c r="B41" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>2048</v>
-      </c>
-      <c r="B42" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2049</v>
-      </c>
-      <c r="B43" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>2050</v>
-      </c>
-      <c r="B44" s="1">
-        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3478,19 +3480,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3501,7 +3503,7 @@
         <v>2006</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3">
         <v>31</v>
@@ -3518,7 +3520,7 @@
         <v>2006</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3">
         <v>32</v>
@@ -3535,7 +3537,7 @@
         <v>2006</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3">
         <v>33</v>
@@ -3552,7 +3554,7 @@
         <v>2006</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3">
         <v>34</v>
@@ -3569,7 +3571,7 @@
         <v>2006</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3">
         <v>35</v>
@@ -3586,7 +3588,7 @@
         <v>2006</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3">
         <v>36</v>
@@ -3603,7 +3605,7 @@
         <v>2006</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3">
         <v>37</v>
@@ -3620,7 +3622,7 @@
         <v>2006</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3">
         <v>38</v>
@@ -3637,7 +3639,7 @@
         <v>2006</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3">
         <v>39</v>
@@ -3654,7 +3656,7 @@
         <v>2006</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3">
         <v>40</v>
@@ -3671,7 +3673,7 @@
         <v>2006</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3">
         <v>41</v>
@@ -3688,7 +3690,7 @@
         <v>2006</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3">
         <v>42</v>
@@ -3705,7 +3707,7 @@
         <v>2006</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3">
         <v>43</v>
@@ -3722,7 +3724,7 @@
         <v>2006</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D15" s="3">
         <v>44</v>
@@ -3739,7 +3741,7 @@
         <v>2006</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D16" s="3">
         <v>45</v>
@@ -3756,7 +3758,7 @@
         <v>2006</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3">
         <v>45.5</v>
@@ -3773,7 +3775,7 @@
         <v>2006</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3">
         <v>46</v>
@@ -3790,7 +3792,7 @@
         <v>2006</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3">
         <v>46.5</v>
@@ -3807,7 +3809,7 @@
         <v>2006</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D20" s="3">
         <v>47</v>
@@ -3824,7 +3826,7 @@
         <v>2006</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D21" s="3">
         <v>47.5</v>
@@ -3841,7 +3843,7 @@
         <v>2006</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D22" s="3">
         <v>48</v>
@@ -3858,7 +3860,7 @@
         <v>2006</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D23" s="3">
         <v>48.5</v>
@@ -3875,7 +3877,7 @@
         <v>2006</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D24" s="3">
         <v>49</v>
@@ -3892,7 +3894,7 @@
         <v>2006</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D25" s="3">
         <v>49.5</v>
@@ -3909,7 +3911,7 @@
         <v>2006</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D26" s="3">
         <v>50</v>
@@ -3926,7 +3928,7 @@
         <v>2006</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3">
         <v>50.5</v>
@@ -3943,7 +3945,7 @@
         <v>2006</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D28" s="3">
         <v>51</v>
@@ -3960,7 +3962,7 @@
         <v>2006</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3">
         <v>51.5</v>
@@ -3977,7 +3979,7 @@
         <v>2006</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D30" s="3">
         <v>52</v>
@@ -3994,7 +3996,7 @@
         <v>2006</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D31" s="3">
         <v>52.5</v>
@@ -4011,7 +4013,7 @@
         <v>2006</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D32" s="3">
         <v>53</v>
@@ -4028,7 +4030,7 @@
         <v>2006</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D33" s="3">
         <v>53.5</v>
@@ -4045,7 +4047,7 @@
         <v>2006</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D34" s="3">
         <v>54</v>
@@ -4062,7 +4064,7 @@
         <v>2006</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D35" s="3">
         <v>54.5</v>
@@ -4079,7 +4081,7 @@
         <v>2006</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D36" s="3">
         <v>55</v>
@@ -4103,33 +4105,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2">
         <v>8.73</v>
@@ -4137,16 +4139,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2">
         <v>12.96</v>
@@ -4154,16 +4156,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2">
         <v>33.369999999999997</v>
@@ -4171,16 +4173,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2">
         <v>33.369999999999997</v>
@@ -4188,16 +4190,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2">
         <v>33.369999999999997</v>
@@ -4205,16 +4207,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2">
         <v>10.050000000000001</v>
@@ -4222,16 +4224,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2">
         <v>0.7</v>
@@ -4239,16 +4241,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2">
         <v>1.92</v>
@@ -4256,16 +4258,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2">
         <v>1.92</v>
@@ -4273,16 +4275,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2">
         <v>1.92</v>
@@ -4290,16 +4292,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -4307,16 +4309,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2">
         <v>5.0000000000000001E-3</v>
@@ -4324,16 +4326,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2">
         <v>5.0000000000000001E-3</v>
@@ -4341,16 +4343,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2">
         <v>5.0000000000000001E-3</v>
@@ -4358,16 +4360,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2">
         <v>5.0000000000000001E-3</v>
@@ -4375,16 +4377,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2">
         <v>0.03</v>
@@ -4392,16 +4394,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2">
         <v>1.1000000000000001</v>
@@ -4409,16 +4411,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2">
         <v>0.94</v>
@@ -4426,16 +4428,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2">
         <v>0.94</v>
@@ -4443,16 +4445,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2">
         <v>0.94</v>
@@ -4479,36 +4481,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>2010</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>21491</v>
@@ -4519,16 +4521,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>2010</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>21491</v>
@@ -4539,16 +4541,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>2010</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>1709</v>
@@ -4559,16 +4561,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>2010</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>1709</v>
@@ -4579,16 +4581,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>2010</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>17134</v>
@@ -4599,16 +4601,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>2010</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>17134</v>
@@ -4619,16 +4621,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>2010</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>66650</v>
@@ -4639,16 +4641,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <v>2010</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>226510</v>
@@ -4680,57 +4682,57 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>0.9</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>2010</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <f>1/1000</f>
@@ -4745,25 +4747,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>0.9</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>2010</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H17" si="0">1/1000</f>
@@ -4778,25 +4780,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>0.1</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
@@ -4811,25 +4813,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>0.1</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>2010</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
@@ -4844,25 +4846,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>0.9</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>2010</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
@@ -4877,25 +4879,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>0.9</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
@@ -4910,25 +4912,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>0.1</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
@@ -4943,25 +4945,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>0.1</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -4976,25 +4978,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>0.9</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>2010</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -5009,25 +5011,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>0.9</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F11">
         <v>2010</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -5042,25 +5044,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>0.1</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>2010</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -5075,25 +5077,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>0.1</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>2010</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -5108,25 +5110,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <v>0.9</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F14">
         <v>2010</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -5141,25 +5143,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>0.9</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F15">
         <v>2010</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
@@ -5174,25 +5176,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>0.1</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F16">
         <v>2010</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
@@ -5207,25 +5209,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>0.1</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F17">
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
@@ -5240,25 +5242,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <v>0.9</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F18">
         <v>2010</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H18">
         <f>1/1000</f>
@@ -5273,25 +5275,25 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>0.9</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F19">
         <v>2010</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19:H33" si="1">1/1000</f>
@@ -5306,25 +5308,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>0.1</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>2010</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
@@ -5339,25 +5341,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>0.1</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F21">
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
@@ -5372,25 +5374,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C22">
         <v>0.9</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F22">
         <v>2010</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
@@ -5405,25 +5407,25 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C23">
         <v>0.9</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F23">
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
@@ -5438,25 +5440,25 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>0.1</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F24">
         <v>2010</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
@@ -5471,25 +5473,25 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>0.1</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F25">
         <v>2010</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
@@ -5504,25 +5506,25 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C26">
         <v>0.9</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F26">
         <v>2010</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
@@ -5537,25 +5539,25 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0.9</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F27">
         <v>2010</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
@@ -5570,25 +5572,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>0.1</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F28">
         <v>2010</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
@@ -5603,25 +5605,25 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>0.1</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F29">
         <v>2010</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
@@ -5636,25 +5638,25 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>0.9</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F30">
         <v>2010</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
@@ -5669,25 +5671,25 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0.9</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F31">
         <v>2010</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
@@ -5702,25 +5704,25 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>0.1</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F32">
         <v>2010</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
@@ -5735,25 +5737,25 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>0.1</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F33">
         <v>2010</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
@@ -5772,122 +5774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F994D8A-6343-AC4C-BDCF-5976C7875F56}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2008</v>
-      </c>
-      <c r="B2">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2009</v>
-      </c>
-      <c r="B3">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2011</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2012</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2014</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2017</v>
-      </c>
-      <c r="B11">
-        <v>1.3000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2018</v>
-      </c>
-      <c r="B12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D2C993-79ED-F94D-9DAC-90CF7B14DEEE}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5899,36 +5790,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>2016</v>
@@ -5937,7 +5828,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -5945,13 +5836,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>2016</v>
@@ -5960,7 +5851,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -5968,13 +5859,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>2016</v>
@@ -5983,7 +5874,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -5991,13 +5882,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>2016</v>
@@ -6006,7 +5897,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G5">
         <v>526</v>
@@ -6014,13 +5905,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>2016</v>
@@ -6029,7 +5920,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -6037,13 +5928,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>2016</v>
@@ -6052,7 +5943,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -6060,13 +5951,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>2016</v>
@@ -6075,7 +5966,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6083,13 +5974,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>2016</v>
@@ -6098,7 +5989,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G9">
         <v>20</v>
@@ -6106,13 +5997,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>2016</v>
@@ -6121,7 +6012,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>526</v>
@@ -6129,13 +6020,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>2016</v>
@@ -6144,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G11">
         <v>35</v>
@@ -6152,13 +6043,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>2016</v>
@@ -6167,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6175,13 +6066,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>2016</v>
@@ -6190,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -6198,13 +6089,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>2016</v>
@@ -6213,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G14">
         <v>75</v>
@@ -6221,13 +6112,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>2016</v>
@@ -6236,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G15">
         <v>2.1</v>
@@ -6244,13 +6135,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>2016</v>
@@ -6259,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G16">
         <v>2.1</v>
@@ -6267,13 +6158,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>2016</v>
@@ -6282,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G17">
         <v>75</v>
@@ -6290,6 +6181,77 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0097B0-C046-D64D-9241-748FA74A6E8D}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2018</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6310,26 +6272,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -6340,7 +6302,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -6351,7 +6313,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -6362,7 +6324,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -6373,7 +6335,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -6384,7 +6346,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -6395,7 +6357,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -6406,7 +6368,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -6434,30 +6396,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -6474,10 +6436,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -6498,10 +6460,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>0.6</v>
@@ -6522,10 +6484,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -6546,10 +6508,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -6570,10 +6532,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>0.45</v>
@@ -6594,10 +6556,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -6618,10 +6580,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>0.5</v>
@@ -6738,32 +6700,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -6780,7 +6742,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -6797,7 +6759,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -6814,7 +6776,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -6846,21 +6808,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>1.8</v>
@@ -6868,10 +6830,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -6879,10 +6841,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>1.1000000000000001</v>
@@ -6890,10 +6852,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>1.2</v>
@@ -6916,21 +6878,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>1.2</v>
@@ -6938,10 +6900,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>19</v>

--- a/files/svk/svk_cba_road_params_201912.xlsx
+++ b/files/svk/svk_cba_road_params_201912.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Tatra/UHP/Code/PYCBA/files/svk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF68B03-46D8-C64F-A7A9-A86355BED924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06765CF-A247-CB48-AC81-678DDF677B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{31498E98-5634-7C4D-AB13-9B8B43667B80}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="3" activeTab="4" xr2:uid="{31498E98-5634-7C4D-AB13-9B8B43667B80}"/>
   </bookViews>
   <sheets>
     <sheet name="gdp_growth" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="113">
   <si>
     <t>year</t>
   </si>
@@ -288,15 +288,9 @@
     <t>narrow</t>
   </si>
   <si>
-    <t>dual</t>
-  </si>
-  <si>
     <t>single</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>damage</t>
   </si>
   <si>
@@ -394,6 +388,15 @@
   </si>
   <si>
     <t>eur/veh</t>
+  </si>
+  <si>
+    <t>pavements_concrete</t>
+  </si>
+  <si>
+    <t>separated</t>
+  </si>
+  <si>
+    <t>layout</t>
   </si>
 </sst>
 </file>
@@ -785,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1240,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1258,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1266,7 +1269,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>2016</v>
@@ -1293,7 +1296,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>2016</v>
@@ -1320,7 +1323,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>2016</v>
@@ -1347,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>2016</v>
@@ -1374,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>2016</v>
@@ -1401,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>2016</v>
@@ -1428,7 +1431,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>2016</v>
@@ -1455,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>2016</v>
@@ -1482,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>2016</v>
@@ -1509,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>2016</v>
@@ -1536,7 +1539,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12">
         <v>2016</v>
@@ -1563,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13">
         <v>2016</v>
@@ -1590,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>2016</v>
@@ -1617,7 +1620,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>2016</v>
@@ -1644,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16">
         <v>2016</v>
@@ -1671,7 +1674,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17">
         <v>2016</v>
@@ -1710,7 +1713,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18">
         <v>0.4</v>
@@ -1737,7 +1740,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G19">
         <v>0.4</v>
@@ -1764,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20">
         <v>0.4</v>
@@ -1791,7 +1794,7 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G21">
         <v>0.4</v>
@@ -1913,16 +1916,16 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1933,7 +1936,7 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1">
         <v>0.14249999999999999</v>
@@ -1956,7 +1959,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" s="1">
         <v>0.13250000000000001</v>
@@ -1979,7 +1982,7 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1">
         <v>0.17249999999999999</v>
@@ -2002,7 +2005,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5">
         <v>0.88300000000000001</v>
@@ -2025,7 +2028,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>0.70300000000000007</v>
@@ -2172,7 +2175,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2309,7 +2312,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>0.75</v>
@@ -2320,7 +2323,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>0.85</v>
@@ -2363,7 +2366,7 @@
         <v>2019</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>1.284</v>
@@ -2377,7 +2380,7 @@
         <v>2019</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>1.2010000000000001</v>
@@ -2393,7 +2396,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2406,22 +2409,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
         <v>71</v>
@@ -2433,10 +2436,10 @@
         <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2446,11 +2449,14 @@
       <c r="B2">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
       <c r="D2" t="s">
         <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <f>1/100000000</f>
@@ -2476,11 +2482,14 @@
       <c r="B3">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
       <c r="D3" t="s">
         <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F15" si="0">1/100000000</f>
@@ -2506,11 +2515,14 @@
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
       <c r="D4" t="s">
         <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -2529,7 +2541,7 @@
         <v>24.722999999999999</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2539,11 +2551,14 @@
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="s">
         <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -2562,7 +2577,7 @@
         <v>12.83</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2573,13 +2588,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -2606,13 +2621,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -2639,13 +2654,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -2664,7 +2679,7 @@
         <v>19.245999999999999</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2675,13 +2690,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -2714,7 +2729,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -2747,7 +2762,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -2780,7 +2795,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -2813,7 +2828,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -2839,11 +2854,14 @@
       <c r="B14">
         <v>3</v>
       </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
       <c r="D14" t="s">
         <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -2869,11 +2887,14 @@
       <c r="B15">
         <v>3</v>
       </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
       <c r="D15" t="s">
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -2915,13 +2936,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2930,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2995,7 +3016,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
@@ -3369,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3492,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4122,7 +4143,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -4139,7 +4160,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -4156,7 +4177,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4173,7 +4194,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -4190,7 +4211,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -4207,7 +4228,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -4224,7 +4245,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -4241,7 +4262,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -4258,7 +4279,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -4275,7 +4296,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -4292,7 +4313,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -4309,7 +4330,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -4326,7 +4347,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -4343,7 +4364,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -4360,7 +4381,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -4377,7 +4398,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -4394,7 +4415,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -4411,7 +4432,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -4428,7 +4449,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -4445,7 +4466,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -4484,7 +4505,7 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -4496,12 +4517,12 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -4521,7 +4542,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -4541,7 +4562,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -4561,7 +4582,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -4581,7 +4602,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -4601,7 +4622,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -4621,7 +4642,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -4641,7 +4662,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -4688,13 +4709,13 @@
         <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -4703,13 +4724,13 @@
         <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5793,10 +5814,10 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6189,7 +6210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0097B0-C046-D64D-9241-748FA74A6E8D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -6217,7 +6238,7 @@
         <v>2018</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2">
         <v>0.11600000000000001</v>
@@ -6231,7 +6252,7 @@
         <v>2018</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3">
         <v>0.11600000000000001</v>
@@ -6245,7 +6266,7 @@
         <v>2018</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4">
         <v>0.11600000000000001</v>
@@ -6258,15 +6279,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44AD7F-1C42-854F-9BAB-7E1168A868A8}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6302,18 +6323,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -6324,10 +6345,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -6335,21 +6356,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>0.75</v>
@@ -6357,23 +6378,34 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>15</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6460,7 +6492,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -6892,7 +6924,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>1.2</v>
@@ -6903,7 +6935,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>19</v>
